--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/NEW_YORK_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/NEW_YORK_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1392"/>
+  <dimension ref="A1:D1386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C21">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C24">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C31">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C47">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C55">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C56">
@@ -1426,7 +1426,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C80">
@@ -1659,7 +1659,7 @@
         <v>24</v>
       </c>
       <c r="D97">
-        <v>0.0009302325581395349</v>
+        <v>0.0009302325581395348</v>
       </c>
     </row>
     <row r="98">
@@ -1735,7 +1735,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C107">
@@ -1979,7 +1979,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C121">
@@ -2096,12 +2096,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C130">
@@ -2140,7 +2140,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C133">
@@ -2153,7 +2153,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C134">
@@ -2166,7 +2166,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C135">
@@ -2257,7 +2257,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C142">
@@ -2348,7 +2348,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C149">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C152">
@@ -2478,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C159">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C164">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C165">
@@ -2654,7 +2654,7 @@
         <v>24</v>
       </c>
       <c r="D172">
-        <v>0.0009302325581395349</v>
+        <v>0.0009302325581395348</v>
       </c>
     </row>
     <row r="173">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C177">
@@ -2745,7 +2745,7 @@
         <v>243</v>
       </c>
       <c r="D179">
-        <v>0.009418604651162791</v>
+        <v>0.009418604651162793</v>
       </c>
     </row>
     <row r="180">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C189">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C190">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C191">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C201">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C212">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C216">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C217">
@@ -3245,7 +3245,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C218">
@@ -3380,7 +3380,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C228">
@@ -3393,7 +3393,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C229">
@@ -3406,7 +3406,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C230">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C235">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C247">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C249">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C251">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C252">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C257">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C260">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C261">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C265">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C266">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C269">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C271">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C272">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C273">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C279">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C283">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C284">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C291">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C294">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C296">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C299">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C311">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C313">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C315">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C317">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C321">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C322">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C334">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C341">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C347">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C351">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C354">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C357">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C362">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C363">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C364">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C365">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C367">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C368">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C371">
@@ -5314,7 +5314,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C376">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C380">
@@ -5392,7 +5392,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C382">
@@ -5405,7 +5405,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C383">
@@ -5444,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C386">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C393">
@@ -5548,7 +5548,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C394">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C398">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C404">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C405">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C410">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C412">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C413">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C416">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C421">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C422">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C423">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C425">
@@ -5995,7 +5995,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C428">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C429">
@@ -6021,7 +6021,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C430">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C431">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C436">
@@ -6112,7 +6112,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C437">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C440">
@@ -6936,7 +6936,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C500">
@@ -7175,7 +7175,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C518">
@@ -7279,7 +7279,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C526">
@@ -7331,7 +7331,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C530">
@@ -7409,7 +7409,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C536">
@@ -7422,7 +7422,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C537">
@@ -7526,7 +7526,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C545">
@@ -7570,7 +7570,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C548">
@@ -7692,7 +7692,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C557">
@@ -7775,7 +7775,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C563">
@@ -7840,7 +7840,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C568">
@@ -7905,7 +7905,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C573">
@@ -7918,7 +7918,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C574">
@@ -7957,7 +7957,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C577">
@@ -7996,7 +7996,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C580">
@@ -8022,7 +8022,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C582">
@@ -8035,7 +8035,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C583">
@@ -8048,7 +8048,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C584">
@@ -8074,7 +8074,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C586">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C587">
@@ -8100,7 +8100,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C588">
@@ -8113,7 +8113,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C589">
@@ -8139,7 +8139,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C591">
@@ -8165,7 +8165,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C593">
@@ -8178,7 +8178,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C594">
@@ -8282,7 +8282,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C602">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C603">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C605">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C607">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C609">
@@ -8386,7 +8386,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C610">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C611">
@@ -8412,7 +8412,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C612">
@@ -8425,7 +8425,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C613">
@@ -8536,7 +8536,7 @@
         <v>25</v>
       </c>
       <c r="D621">
-        <v>0.0009689922480620155</v>
+        <v>0.0009689922480620156</v>
       </c>
     </row>
     <row r="622">
@@ -8646,7 +8646,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C630">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C632">
@@ -8802,7 +8802,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C642">
@@ -8867,7 +8867,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C647">
@@ -9205,7 +9205,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C673">
@@ -9218,7 +9218,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C674">
@@ -9615,7 +9615,7 @@
         <v>24</v>
       </c>
       <c r="D704">
-        <v>0.0009302325581395349</v>
+        <v>0.0009302325581395348</v>
       </c>
     </row>
     <row r="705">
@@ -9751,7 +9751,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C715">
@@ -9972,7 +9972,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C732">
@@ -10323,7 +10323,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C759">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C768">
@@ -10479,7 +10479,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C771">
@@ -10544,7 +10544,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C776">
@@ -10557,7 +10557,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C777">
@@ -10570,7 +10570,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C778">
@@ -11324,7 +11324,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C836">
@@ -11480,7 +11480,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C848">
@@ -11493,7 +11493,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C849">
@@ -11506,7 +11506,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C850">
@@ -11519,7 +11519,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C851">
@@ -11532,20 +11532,20 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C852">
         <v>25</v>
       </c>
       <c r="D852">
-        <v>0.0009689922480620155</v>
+        <v>0.0009689922480620156</v>
       </c>
     </row>
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C853">
@@ -11571,7 +11571,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C855">
@@ -11584,7 +11584,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C856">
@@ -11610,7 +11610,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C858">
@@ -11623,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C859">
@@ -11636,7 +11636,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C860">
@@ -11649,7 +11649,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C861">
@@ -11662,7 +11662,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C862">
@@ -11688,7 +11688,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C864">
@@ -11701,7 +11701,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C865">
@@ -11740,7 +11740,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C868">
@@ -12096,7 +12096,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C895">
@@ -12161,7 +12161,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C900">
@@ -12291,7 +12291,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C910">
@@ -12389,7 +12389,7 @@
         <v>246</v>
       </c>
       <c r="D917">
-        <v>0.009534883720930233</v>
+        <v>0.009534883720930231</v>
       </c>
     </row>
     <row r="918">
@@ -12434,7 +12434,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C921">
@@ -12486,7 +12486,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C925">
@@ -12499,7 +12499,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C926">
@@ -12694,7 +12694,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C941">
@@ -12707,7 +12707,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C942">
@@ -12759,7 +12759,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C946">
@@ -12785,7 +12785,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C948">
@@ -12837,7 +12837,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C952">
@@ -12967,7 +12967,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C962">
@@ -12980,7 +12980,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C963">
@@ -13149,7 +13149,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C976">
@@ -13279,7 +13279,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C986">
@@ -13474,7 +13474,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1001">
@@ -13526,7 +13526,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1005">
@@ -13539,7 +13539,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1006">
@@ -13630,7 +13630,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1013">
@@ -13734,7 +13734,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1021">
@@ -13747,7 +13747,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1022">
@@ -13760,7 +13760,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1023">
@@ -13838,7 +13838,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1029">
@@ -13864,7 +13864,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1031">
@@ -13877,7 +13877,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1032">
@@ -13890,7 +13890,7 @@
     <row r="1033">
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1033">
@@ -13955,7 +13955,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1038">
@@ -14098,7 +14098,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1049">
@@ -14124,7 +14124,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1051">
@@ -14157,7 +14157,7 @@
         <v>24</v>
       </c>
       <c r="D1053">
-        <v>0.0009302325581395349</v>
+        <v>0.0009302325581395348</v>
       </c>
     </row>
     <row r="1054">
@@ -14176,7 +14176,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1055">
@@ -14254,7 +14254,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1061">
@@ -14300,7 +14300,7 @@
         <v>25</v>
       </c>
       <c r="D1064">
-        <v>0.0009689922480620155</v>
+        <v>0.0009689922480620156</v>
       </c>
     </row>
     <row r="1065">
@@ -14467,7 +14467,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1077">
@@ -14480,7 +14480,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1078">
@@ -14519,7 +14519,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1081">
@@ -14545,7 +14545,7 @@
     <row r="1083">
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1083">
@@ -14584,7 +14584,7 @@
     <row r="1086">
       <c r="B1086" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1086">
@@ -14711,7 +14711,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1095">
@@ -14776,7 +14776,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1100">
@@ -14841,7 +14841,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1105">
@@ -14893,7 +14893,7 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1109">
@@ -14945,7 +14945,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1113">
@@ -14984,7 +14984,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1116">
@@ -14997,7 +14997,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1117">
@@ -15230,7 +15230,7 @@
         <v>25</v>
       </c>
       <c r="D1134">
-        <v>0.0009689922480620155</v>
+        <v>0.0009689922480620156</v>
       </c>
     </row>
     <row r="1135">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1173">
@@ -15776,7 +15776,7 @@
     <row r="1175">
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1175">
@@ -15841,7 +15841,7 @@
     <row r="1180">
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1180">
@@ -15874,7 +15874,7 @@
         <v>25</v>
       </c>
       <c r="D1182">
-        <v>0.0009689922480620155</v>
+        <v>0.0009689922480620156</v>
       </c>
     </row>
     <row r="1183">
@@ -15893,7 +15893,7 @@
     <row r="1184">
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1184">
@@ -15945,7 +15945,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1188">
@@ -15958,7 +15958,7 @@
     <row r="1189">
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1189">
@@ -15997,7 +15997,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1192">
@@ -16062,7 +16062,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1197">
@@ -16173,13 +16173,13 @@
         <v>25</v>
       </c>
       <c r="D1205">
-        <v>0.0009689922480620155</v>
+        <v>0.0009689922480620156</v>
       </c>
     </row>
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1206">
@@ -16218,7 +16218,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1209">
@@ -16348,7 +16348,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1219">
@@ -16457,7 +16457,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1227">
@@ -16509,7 +16509,7 @@
     <row r="1231">
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1231">
@@ -16600,7 +16600,7 @@
     <row r="1238">
       <c r="B1238" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1238">
@@ -16652,7 +16652,7 @@
     <row r="1242">
       <c r="B1242" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1242">
@@ -16678,7 +16678,7 @@
     <row r="1244">
       <c r="B1244" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1244">
@@ -16802,7 +16802,7 @@
         <v>25</v>
       </c>
       <c r="D1253">
-        <v>0.0009689922480620155</v>
+        <v>0.0009689922480620156</v>
       </c>
     </row>
     <row r="1254">
@@ -16847,7 +16847,7 @@
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1257">
@@ -17042,7 +17042,7 @@
     <row r="1272">
       <c r="B1272" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1272">
@@ -17055,7 +17055,7 @@
     <row r="1273">
       <c r="B1273" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1273">
@@ -17107,7 +17107,7 @@
     <row r="1277">
       <c r="B1277" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1277">
@@ -17120,7 +17120,7 @@
     <row r="1278">
       <c r="B1278" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1278">
@@ -17224,7 +17224,7 @@
     <row r="1286">
       <c r="B1286" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1286">
@@ -17276,7 +17276,7 @@
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1290">
@@ -17289,7 +17289,7 @@
     <row r="1291">
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1291">
@@ -17328,7 +17328,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1294">
@@ -17341,7 +17341,7 @@
     <row r="1295">
       <c r="B1295" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1295">
@@ -17380,7 +17380,7 @@
     <row r="1298">
       <c r="B1298" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1298">
@@ -17523,7 +17523,7 @@
     <row r="1309">
       <c r="B1309" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1309">
@@ -17536,7 +17536,7 @@
     <row r="1310">
       <c r="B1310" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1310">
@@ -17588,7 +17588,7 @@
     <row r="1314">
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1314">
@@ -17705,7 +17705,7 @@
     <row r="1323">
       <c r="B1323" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1323">
@@ -17731,7 +17731,7 @@
     <row r="1325">
       <c r="B1325" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1325">
@@ -18082,7 +18082,7 @@
     <row r="1352">
       <c r="B1352" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1352">
@@ -18199,7 +18199,7 @@
     <row r="1361">
       <c r="B1361" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1361">
@@ -18212,7 +18212,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1362">
@@ -18365,7 +18365,7 @@
     <row r="1373">
       <c r="B1373" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1373">
@@ -18391,7 +18391,7 @@
     <row r="1375">
       <c r="B1375" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1375">
@@ -18469,7 +18469,7 @@
     <row r="1381">
       <c r="B1381" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1381">
@@ -18495,7 +18495,7 @@
     <row r="1383">
       <c r="B1383" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1383">
@@ -18542,41 +18542,6 @@
       </c>
       <c r="D1386">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1388">
-      <c r="A1388" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1389">
-      <c r="A1389" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1390">
-      <c r="A1390" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1391">
-      <c r="A1391" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1392">
-      <c r="A1392" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
